--- a/trend_results/Rivers/TamakiatTamakiReserve_fc9384cd78.xlsx
+++ b/trend_results/Rivers/TamakiatTamakiReserve_fc9384cd78.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.100022527254665</v>
+        <v>0.899977472745335</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.531007935573882</v>
+        <v>0.468992064426118</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.885781989248931</v>
+        <v>0.114218010751069</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0910644178976194</v>
+        <v>0.908935582102381</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2998,31 +2998,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.231216363225238</v>
+        <v>0.0001119183193508</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.709677419354839</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.61</v>
+        <v>2.15</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.017521099407505</v>
+        <v>0.145307414104882</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.112305791019924</v>
+        <v>0.0571478890304703</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0324618304036267</v>
+        <v>0.224554248954691</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.8723113782795</v>
+        <v>6.75848437697128</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3060,7 +3060,11 @@
           <t>Mana_3</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3070,14 +3074,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3085,31 +3089,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.231216363225238</v>
+        <v>3.51702214018701e-07</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.820987654320988</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>128.67</v>
+        <v>10.47</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.765921017186258</v>
+        <v>-0.0589651233627779</v>
       </c>
       <c r="L30" t="n">
-        <v>-6.33331710218173</v>
+        <v>-0.08046879475384371</v>
       </c>
       <c r="M30" t="n">
-        <v>1.54828050555529</v>
+        <v>-0.0410641042094635</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.595259980715208</v>
+        <v>-0.56318169400934</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3118,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3147,7 +3151,11 @@
           <t>Mana_3</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3157,11 +3165,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3172,31 +3180,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.0353684118876533</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0368098159509202</v>
       </c>
       <c r="H31" t="n">
+        <v>0.098159509202454</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>7.57</v>
+        <v>0.01</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0211005209192242</v>
+        <v>7.55116807938806e-05</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.364941220351314</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.100850719553334</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="N31" t="n">
-        <v>0.278738717559105</v>
+        <v>0.755116807938806</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3205,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3234,7 +3242,11 @@
           <t>Mana_3</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3244,46 +3256,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.0898290439968213</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.110429447852761</v>
       </c>
       <c r="H32" t="n">
+        <v>0.251533742331288</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>0.623</v>
+        <v>8</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0057874119718309</v>
+        <v>0.166173794358508</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0195110106168349</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0003331221799182</v>
+        <v>0.500761792396717</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.928958582958425</v>
+        <v>2.07717242948135</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3321,7 +3333,11 @@
           <t>Mana_3</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3331,46 +3347,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.639742606431872</v>
+        <v>0.719086538448222</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.955696202531646</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.08227848101265819</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>127.97</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>0.556274748705452</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.8034134145791429</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>2.12201374125406</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.434691528253069</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3379,7 +3395,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3408,7 +3424,11 @@
           <t>Mana_3</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3418,46 +3438,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.570986171506239</v>
+        <v>0.462694475581241</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.61437908496732</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>7.5155</v>
+        <v>0.001</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0050188938509103</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0566391531068009</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0612824423272854</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0667805714977093</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3495,7 +3515,1162 @@
           <t>Mana_3</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.58368188279467e-07</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0849673202614379</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.718954248366013</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0049225067385444</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0034793798167859</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0068430913348946</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6.65203613316821</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.998731451086225</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.54320987654321</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0211534749034751</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0103728304294687</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0315190033610399</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.278885628259395</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>7.27388521910982e-06</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0122699386503067</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.595092024539877</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0039818406343429</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0025085851648351</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.00536507239745</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.91585263499125</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.008957136439363999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0245398773006135</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.386503067484663</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0024965823650034</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0005533964206249</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0041844356891585</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.08048530416951</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.950110661160943</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0122699386503067</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.208588957055215</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0001314321698452</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0002915003990422</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.0952680820439</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.999911584857092</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.785276073619632</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0285279667422525</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.044317480290587</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.0153390181725449</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-4.67671585938565</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.017521099407505</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.112305791019924</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0324618304036267</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-2.8723113782795</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>128.67</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.765921017186258</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-6.33331710218173</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.54828050555529</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.595259980715208</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0211005209192242</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.364941220351314</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.100850719553334</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.278738717559105</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.07620314197837499</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.0057874119718309</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.0195110106168349</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0003331221799182</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.928958582958425</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.639742606431872</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>127.97</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.556274748705452</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.8034134145791429</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2.12201374125406</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.434691528253069</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.570986171506239</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7.5155</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0050188938509103</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0566391531068009</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0612824423272854</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0667805714977093</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>15</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.031349058130491</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.33343474292668</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-2.18313818747683</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.462492064993068</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.02967933816732</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/TamakiatTamakiReserve_fc9384cd78.xlsx
+++ b/trend_results/Rivers/TamakiatTamakiReserve_fc9384cd78.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.156377659637921</v>
+        <v>0.664709023598818</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>0.907407407407407</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.65</v>
+        <v>2.425</v>
       </c>
       <c r="K2" t="n">
-        <v>0.220030120481928</v>
+        <v>-0.122157190635451</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.221531744784189</v>
+        <v>-0.625904477837291</v>
       </c>
       <c r="M2" t="n">
-        <v>0.694041381452587</v>
+        <v>0.257201640244018</v>
       </c>
       <c r="N2" t="n">
-        <v>8.303023414412371</v>
+        <v>-5.0374099231114</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.899977472745335</v>
+        <v>0.943281809581909</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.982456140350877</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>10.26</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06355082417582431</v>
+        <v>0.0663760268857353</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0190451080870931</v>
+        <v>-0.0234735703977256</v>
       </c>
       <c r="M3" t="n">
-        <v>0.10167287194775</v>
+        <v>0.109000952990926</v>
       </c>
       <c r="N3" t="n">
-        <v>0.619403744403746</v>
+        <v>0.646939833194301</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.552593583815148</v>
+        <v>0.228052675890135</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.228070175438596</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0004247645512683</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003886974939704</v>
+        <v>0.000535376526544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,17 +842,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.161272662057213</v>
+        <v>0.0331696074824653</v>
       </c>
       <c r="G5" t="n">
-        <v>0.175438596491228</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="H5" t="n">
-        <v>0.228070175438596</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.66308843537415</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.42691029900332</v>
+        <v>3.49828453508886</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>13.8590702947846</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -938,10 +938,10 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.961538461538462</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.0377358490566038</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.800470766467463</v>
+        <v>0.999270280720127</v>
       </c>
       <c r="G7" t="n">
-        <v>0.684210526315789</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="H7" t="n">
         <v>0.087719298245614</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.58945120822402</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.947368421052632</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0.12</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0043964838164565</v>
+        <v>-0.0007454081632653</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0113225953609422</v>
+        <v>-0.0112853933028517</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0084843985873416</v>
+        <v>0.0064550580880711</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.66373651371377</v>
+        <v>-0.621173469387756</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1194,35 +1194,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.468992064426118</v>
+        <v>0.172661828017857</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.660714285714286</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.64</v>
+        <v>7.58</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.0251405669389562</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0355966100839328</v>
+        <v>-0.0578268205376073</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0298500234473753</v>
+        <v>0.0151237556177949</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>-0.331669748535043</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>0.646872018947574</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.736842105263158</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0.124</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0011269949638246</v>
+        <v>-0.0033487245360771</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009441836734693799</v>
+        <v>-0.011797781396054</v>
       </c>
       <c r="M10" t="n">
-        <v>0.009320311938053299</v>
+        <v>0.007018066331792</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.9088669063102069</v>
+        <v>-2.700584303288</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1361,43 +1361,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.99792282660822</v>
+        <v>0.590988886792535</v>
       </c>
       <c r="G11" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.175438596491228</v>
+        <v>0.385964912280702</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0.0125075379582469</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1452,14 +1452,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.756706324847004</v>
+        <v>0.0207300091021393</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.15</v>
+        <v>0.013</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0033234758871701</v>
+        <v>0.0008868950170592</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0149081632653061</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0049999064034502</v>
+        <v>0.0017392857142857</v>
       </c>
       <c r="N12" t="n">
-        <v>-2.21565059144677</v>
+        <v>6.82226936199394</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1558,28 +1558,28 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.276028683938004</v>
+        <v>0.510986682230269</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.385964912280702</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.012</v>
+        <v>0.65</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0004787024901703</v>
+        <v>-0.083200369636382</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0010520599156514</v>
+        <v>0.109370240307302</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.999765780618694</v>
+        <v>0.28662846703324</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.009009009009009</v>
       </c>
       <c r="H14" t="n">
-        <v>0.807017543859649</v>
+        <v>0.792792792792793</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.52</v>
+        <v>2.2</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.119843575718576</v>
+        <v>0.0345553453169347</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.242188393845557</v>
+        <v>-0.0723178967132888</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0582641152504955</v>
+        <v>0.175707048539158</v>
       </c>
       <c r="N14" t="n">
-        <v>-23.0468414843415</v>
+        <v>1.57069751440612</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1736,35 +1736,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.288298434362816</v>
+        <v>0.040398397256041</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="H15" t="n">
-        <v>0.752212389380531</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0401373626373626</v>
+        <v>-0.185058490858382</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0953881338651003</v>
+        <v>-0.32992660263614</v>
       </c>
       <c r="M15" t="n">
-        <v>0.189177330044149</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.63825969948419</v>
+        <v>-7.8083751417039</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1816,46 +1816,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9854180962001871</v>
+        <v>0.195956363982831</v>
       </c>
       <c r="G16" t="n">
-        <v>0.638888888888889</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.486111111111111</v>
+        <v>0.863247863247863</v>
       </c>
       <c r="I16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.475</v>
+        <v>10.27</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0390365804904051</v>
+        <v>-0.0166704701049748</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.174909254487149</v>
+        <v>-0.0351201923076924</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0494722687879363</v>
+        <v>0.0099978236058573</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.5772355753699</v>
+        <v>-0.162322006864409</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1907,46 +1907,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.77616813842571</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0170940170940171</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.136752136752137</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.114218010751069</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.854700854700855</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>10.27</v>
+        <v>0.011</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0213263915920592</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0398962386315347</v>
+        <v>-0.0002100569802761</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0050048021489965</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.207657172269321</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1998,14 +1998,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2013,31 +2013,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.248008569634349</v>
+        <v>0.0004833498839175</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0256410256410256</v>
+        <v>0.162393162393162</v>
       </c>
       <c r="H18" t="n">
-        <v>0.136752136752137</v>
+        <v>0.205128205128205</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.011</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.993877551020408</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.332347588717015</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0002258812615955</v>
+        <v>1.49794941900205</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>12.4234693877551</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2100,36 +2100,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0032564004527808</v>
-      </c>
+          <t>&lt; 5 Non-censored values</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>0.153846153846154</v>
+        <v>0.973214285714286</v>
       </c>
       <c r="H19" t="n">
-        <v>0.196581196581197</v>
+        <v>0.0625</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.721199664315053</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.17026574440386</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9.014995803938159</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2137,7 +2125,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Not Analysed improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2156,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2168,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2191,24 +2179,36 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.988356912217105</v>
+      </c>
       <c r="G20" t="n">
-        <v>0.973214285714286</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0625</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
       <c r="O20" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Not Analysed improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,14 +2259,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2274,31 +2274,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.954699620784261</v>
+        <v>9.220574922489009e-12</v>
       </c>
       <c r="G21" t="n">
-        <v>0.52991452991453</v>
+        <v>0.0598290598290598</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>0.001</v>
+        <v>0.0852</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0100728417266187</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.0080274725274725</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.0119276672671769</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>11.8225841861722</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2350,14 +2350,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2365,31 +2365,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.53946328748524e-13</v>
+        <v>0.177202364500265</v>
       </c>
       <c r="G22" t="n">
-        <v>0.094017094017094</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.786324786324786</v>
+        <v>0.560344827586207</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.076</v>
+        <v>7.605</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0100343406593407</v>
+        <v>-0.0074145723660488</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008345068261039401</v>
+        <v>-0.0207057823129253</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0118764837256975</v>
+        <v>0.0062563143196864</v>
       </c>
       <c r="N22" t="n">
-        <v>13.2030798149219</v>
+        <v>-0.0974960205923579</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2427,11 +2427,7 @@
           <t>Mana_3</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2441,14 +2437,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2456,31 +2452,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.908935582102381</v>
+        <v>4.75119183736523e-11</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H23" t="n">
-        <v>0.560344827586207</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>7.615</v>
+        <v>0.0905</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0119852418638456</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0024125822853631</v>
+        <v>0.0079690473104677</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0253162320066259</v>
+        <v>0.0125752313742269</v>
       </c>
       <c r="N23" t="n">
-        <v>0.157389912854178</v>
+        <v>11.0876692368405</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2489,7 +2485,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2518,7 +2514,11 @@
           <t>Mana_3</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2543,31 +2543,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.43328362394072e-13</v>
+        <v>4.57802888536236e-08</v>
       </c>
       <c r="G24" t="n">
         <v>0.0170940170940171</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5982905982905981</v>
+        <v>0.324786324786325</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0.081</v>
+        <v>0.13</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0107377124483234</v>
+        <v>0.007996715927750401</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0086155251175173</v>
+        <v>0.0057161237324641</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0128321649011485</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="N24" t="n">
-        <v>13.2564351213869</v>
+        <v>6.15131994442339</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2630,35 +2630,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.940827798899783</v>
+        <v>0.0809659722155347</v>
       </c>
       <c r="G25" t="n">
-        <v>0.521367521367521</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.11965811965812</v>
+        <v>0.213675213675214</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5</v>
+        <v>0.012</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.0001532093239305</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.0004001059093184</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.27674436608814</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2710,14 +2710,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2725,31 +2725,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.95814079964188e-08</v>
+        <v>0.269311321652616</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0170940170940171</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.401709401709402</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0066895604395604</v>
+        <v>0.007741827977167</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0050171703296703</v>
+        <v>-0.0122815787143382</v>
       </c>
       <c r="M26" t="n">
-        <v>0.009959568103459099</v>
+        <v>0.0337815123440866</v>
       </c>
       <c r="N26" t="n">
-        <v>6.08141858141859</v>
+        <v>1.38246928163698</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2801,11 +2801,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2816,31 +2816,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0964314190482444</v>
+        <v>0.0013926518351419</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.006060606060606</v>
       </c>
       <c r="H27" t="n">
-        <v>0.213675213675214</v>
+        <v>0.715151515151515</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.012</v>
+        <v>2.05</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0001285186488388</v>
+        <v>0.08362934308338719</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.0289245191103778</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0003688691353126</v>
+        <v>0.173321914757042</v>
       </c>
       <c r="N27" t="n">
-        <v>1.07098874032372</v>
+        <v>4.07948015040913</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2892,46 +2892,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.944375664283359</v>
+        <v>0.992473460199925</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>0.786324786324786</v>
+        <v>0.441666666666667</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J28" t="n">
-        <v>0.54</v>
+        <v>2.64</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0140213436129303</v>
+        <v>-0.139029916512059</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0317406266103328</v>
+        <v>-0.217410714285714</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-0.0514920112781955</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.59654511350561</v>
+        <v>-5.26628471636588</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2983,14 +2983,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2998,31 +2998,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.0001119183193508</v>
+        <v>2.73926335947472e-07</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.709677419354839</v>
+        <v>0.798850574712644</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.15</v>
+        <v>10.435</v>
       </c>
       <c r="K29" t="n">
-        <v>0.145307414104882</v>
+        <v>-0.0531756141947225</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0571478890304703</v>
+        <v>-0.06908665010120681</v>
       </c>
       <c r="M29" t="n">
-        <v>0.224554248954691</v>
+        <v>-0.037713162262532</v>
       </c>
       <c r="N29" t="n">
-        <v>6.75848437697128</v>
+        <v>-0.509589019594849</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3074,46 +3074,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.016831972489151</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0342857142857143</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0914285714285714</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3.51702214018701e-07</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.820987654320988</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>10.47</v>
+        <v>0.01</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0589651233627779</v>
+        <v>8.96539027982327e-05</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.08046879475384371</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0410641042094635</v>
+        <v>0.0001945388219894</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.56318169400934</v>
+        <v>0.896539027982327</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3165,46 +3165,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0353684118876533</v>
+        <v>0.0184548536521037</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0368098159509202</v>
+        <v>0.108571428571429</v>
       </c>
       <c r="H31" t="n">
-        <v>0.098159509202454</v>
+        <v>0.245714285714286</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
-        <v>7.55116807938806e-05</v>
+        <v>0.249658236500342</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0001999178981937</v>
+        <v>0.570363985713609</v>
       </c>
       <c r="N31" t="n">
-        <v>0.755116807938806</v>
+        <v>3.12072795625427</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3256,46 +3256,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0898290439968213</v>
+        <v>0.791069263251998</v>
       </c>
       <c r="G32" t="n">
-        <v>0.110429447852761</v>
+        <v>0.958823529411765</v>
       </c>
       <c r="H32" t="n">
-        <v>0.251533742331288</v>
+        <v>0.0764705882352941</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
-        <v>0.166173794358508</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.500761792396717</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2.07717242948135</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3358,23 +3358,23 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.719086538448222</v>
+        <v>0.72013569566207</v>
       </c>
       <c r="G33" t="n">
-        <v>0.955696202531646</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08227848101265819</v>
+        <v>0.0545454545454545</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3438,46 +3438,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.462694475581241</v>
+        <v>4.21672316780681e-10</v>
       </c>
       <c r="G34" t="n">
-        <v>0.61437908496732</v>
+        <v>0.0787878787878788</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.001</v>
+        <v>0.0784</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.0052365666145185</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.0039875361343533</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.0067858595342739</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>6.67929415117156</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3529,14 +3529,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3544,31 +3544,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.58368188279467e-07</v>
+        <v>0.96629634442148</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0849673202614379</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.718954248366013</v>
+        <v>0.522988505747126</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.074</v>
+        <v>7.575</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0049225067385444</v>
+        <v>0.0114051522248244</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0034793798167859</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0068430913348946</v>
+        <v>0.0216054353478146</v>
       </c>
       <c r="N35" t="n">
-        <v>6.65203613316821</v>
+        <v>0.150563065674249</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3606,11 +3606,7 @@
           <t>Mana_3</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3620,14 +3616,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3635,31 +3631,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.998731451086225</v>
+        <v>8.488819777241229e-08</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.0114285714285714</v>
       </c>
       <c r="H36" t="n">
-        <v>0.54320987654321</v>
+        <v>0.6914285714285709</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>7.585</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0211534749034751</v>
+        <v>0.0041543448589626</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0103728304294687</v>
+        <v>0.002866959434485</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0315190033610399</v>
+        <v>0.0054271871244426</v>
       </c>
       <c r="N36" t="n">
-        <v>0.278885628259395</v>
+        <v>4.88746453995611</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3668,7 +3664,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3697,7 +3693,11 @@
           <t>Mana_3</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3722,31 +3722,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>7.27388521910982e-06</v>
+        <v>0.0010578682157611</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0122699386503067</v>
+        <v>0.0228571428571429</v>
       </c>
       <c r="H37" t="n">
-        <v>0.595092024539877</v>
+        <v>0.36</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.081</v>
+        <v>0.13</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0039818406343429</v>
+        <v>0.0029987684729064</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0025085851648351</v>
+        <v>0.0013118123601378</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00536507239745</v>
+        <v>0.0044570527714558</v>
       </c>
       <c r="N37" t="n">
-        <v>4.91585263499125</v>
+        <v>2.30674497915877</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3798,46 +3798,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.008957136439363999</v>
+        <v>0.7259953690291731</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0245398773006135</v>
+        <v>0.0114285714285714</v>
       </c>
       <c r="H38" t="n">
-        <v>0.386503067484663</v>
+        <v>0.205714285714286</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0.12</v>
+        <v>0.013</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0024965823650034</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0005533964206249</v>
+        <v>-0.0001750206434785</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0041844356891585</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>2.08048530416951</v>
+        <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3904,31 +3904,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.950110661160943</v>
+        <v>0.978486981539732</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0122699386503067</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.208588957055215</v>
+        <v>0.777142857142857</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.012</v>
+        <v>0.65</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0001314321698452</v>
+        <v>-0.0151242236024845</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0002915003990422</v>
+        <v>-0.029458941775513</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>-0.0029289963507512</v>
       </c>
       <c r="N39" t="n">
-        <v>-1.0952680820439</v>
+        <v>-2.32680363115146</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3980,11 +3980,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -3995,31 +3995,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.999911584857092</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.785276073619632</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0285279667422525</v>
+        <v>-0.0132366419294991</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.044317480290587</v>
+        <v>-0.0381749965385811</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0153390181725449</v>
+        <v>0.0324618304036267</v>
       </c>
       <c r="N40" t="n">
-        <v>-4.67671585938565</v>
+        <v>-2.24349863211849</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4057,11 +4057,7 @@
           <t>Mana_3</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4071,7 +4067,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4086,7 +4082,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.231216363225238</v>
+        <v>0.04320536648685</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4098,19 +4094,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.61</v>
+        <v>127.27</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.017521099407505</v>
+        <v>-4.76151474369275</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.112305791019924</v>
+        <v>-10.6302449243183</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0324618304036267</v>
+        <v>-0.945298783620494</v>
       </c>
       <c r="N41" t="n">
-        <v>-2.8723113782795</v>
+        <v>-3.741270325837</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4119,7 +4115,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4158,7 +4154,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4173,7 +4169,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.231216363225238</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4185,19 +4181,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>128.67</v>
+        <v>7.44</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.765921017186258</v>
+        <v>-0.08965783082918211</v>
       </c>
       <c r="L42" t="n">
-        <v>-6.33331710218173</v>
+        <v>-0.398310863184819</v>
       </c>
       <c r="M42" t="n">
-        <v>1.54828050555529</v>
+        <v>0.100850719553334</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.595259980715208</v>
+        <v>-1.20507837135997</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4206,7 +4202,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4245,11 +4241,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -4260,7 +4256,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5</v>
+        <v>0.053702318165127</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4272,19 +4268,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>7.57</v>
+        <v>0.6155</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0211005209192242</v>
+        <v>-0.0110681818181818</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.364941220351314</v>
+        <v>-0.0230382118973147</v>
       </c>
       <c r="M43" t="n">
-        <v>0.100850719553334</v>
+        <v>-0.0011167629161714</v>
       </c>
       <c r="N43" t="n">
-        <v>0.278738717559105</v>
+        <v>-1.79824237500923</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4293,7 +4289,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4332,7 +4328,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4347,7 +4343,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.185546684761349</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4359,19 +4355,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.623</v>
+        <v>127.97</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0057874119718309</v>
+        <v>-0.56892523364486</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0195110106168349</v>
+        <v>-2.75703799189977</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0003331221799182</v>
+        <v>1.01704001666134</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.928958582958425</v>
+        <v>-0.444577036527983</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4380,7 +4376,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4419,7 +4415,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4434,7 +4430,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.639742606431872</v>
+        <v>0.185546684761349</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4446,19 +4442,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>127.97</v>
+        <v>7.5155</v>
       </c>
       <c r="K45" t="n">
-        <v>0.556274748705452</v>
+        <v>-0.0302538398244653</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.8034134145791429</v>
+        <v>-0.118458173785461</v>
       </c>
       <c r="M45" t="n">
-        <v>2.12201374125406</v>
+        <v>0.0352877558234479</v>
       </c>
       <c r="N45" t="n">
-        <v>0.434691528253069</v>
+        <v>-0.402552588975654</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4467,7 +4463,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4506,11 +4502,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -4521,31 +4517,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.570986171506239</v>
+        <v>0.273221677481333</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>7.5155</v>
+        <v>0.6155</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0050188938509103</v>
+        <v>-0.0028849511536063</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0566391531068009</v>
+        <v>-0.0087846923845162</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0612824423272854</v>
+        <v>0.0056952532669832</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0667805714977093</v>
+        <v>-0.468716678083885</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4554,7 +4550,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4608,7 +4604,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.031349058130491</v>
+        <v>0.008765351686527</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4620,19 +4616,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>129.5</v>
+        <v>129</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.33343474292668</v>
+        <v>-1.58712223756906</v>
       </c>
       <c r="L47" t="n">
-        <v>-2.18313818747683</v>
+        <v>-2.46658009749709</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.462492064993068</v>
+        <v>-0.649856164262165</v>
       </c>
       <c r="N47" t="n">
-        <v>-1.02967933816732</v>
+        <v>-1.23032731594501</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4641,7 +4637,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4671,6 +4667,93 @@
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>15</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.310849452184828</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>7.5155</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0172831230283912</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.0565140103782717</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0217053109539651</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.229966376533713</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/TamakiatTamakiReserve_fc9384cd78.xlsx
+++ b/trend_results/Rivers/TamakiatTamakiReserve_fc9384cd78.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="70">
   <si>
     <t>site name</t>
   </si>
@@ -139,61 +139,61 @@
     <t>ok</t>
   </si>
   <si>
+    <t>&lt; 3 unique values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
+    <t>&lt; 5 Non-censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>&lt; 3 unique values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
-    <t>&lt; 5 Non-censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -581,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,31 +675,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.664709023598818</v>
+        <v>0.981003040128267</v>
       </c>
       <c r="G2">
-        <v>0.0185185185185185</v>
+        <v>0.04</v>
       </c>
       <c r="H2">
-        <v>0.907407407407407</v>
+        <v>0.88</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>2.425</v>
+        <v>2.2</v>
       </c>
       <c r="K2">
-        <v>-0.122157190635451</v>
+        <v>-0.419827586206897</v>
       </c>
       <c r="L2">
-        <v>-0.625904477837291</v>
+        <v>-0.745327899078946</v>
       </c>
       <c r="M2">
-        <v>0.257201640244018</v>
+        <v>-0.0624379450062242</v>
       </c>
       <c r="N2">
-        <v>-5.0374099231114</v>
+        <v>-19.0830721003135</v>
       </c>
       <c r="O2" t="s">
         <v>46</v>
@@ -746,13 +746,13 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.943281809581909</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.947368421052632</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -761,16 +761,16 @@
         <v>10.26</v>
       </c>
       <c r="K3">
-        <v>0.0663760268857353</v>
+        <v>0.012482911825017</v>
       </c>
       <c r="L3">
-        <v>-0.0234735703977256</v>
+        <v>-0.0489955684595016</v>
       </c>
       <c r="M3">
-        <v>0.109000952990926</v>
+        <v>0.08200978452526719</v>
       </c>
       <c r="N3">
-        <v>0.646939833194301</v>
+        <v>0.121665807261375</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>0.228052675890135</v>
+        <v>0.0150405264423523</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0004638186856601</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.000535376526544</v>
+        <v>0.0008900546944707</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>4.63818685660105</v>
       </c>
       <c r="O4" t="s">
         <v>46</v>
@@ -888,13 +888,13 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.0331696074824653</v>
+        <v>0.0604999339991361</v>
       </c>
       <c r="G5">
-        <v>0.157894736842105</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H5">
-        <v>0.263157894736842</v>
+        <v>0.321428571428571</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -903,16 +903,16 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>1.66308843537415</v>
+        <v>1.31950171051079</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.49828453508886</v>
+        <v>3.76101780207552</v>
       </c>
       <c r="N5">
-        <v>13.8590702947846</v>
+        <v>10.9958475875899</v>
       </c>
       <c r="O5" t="s">
         <v>46</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>0.981132075471698</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="H6">
-        <v>0.0377358490566038</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>0.999270280720127</v>
+        <v>0.994156941334789</v>
       </c>
       <c r="G7">
-        <v>0.701754385964912</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="H7">
-        <v>0.087719298245614</v>
+        <v>0.0701754385964912</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1083,37 +1083,37 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.0171468605182464</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.87719298245614</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.12</v>
+        <v>0.126</v>
       </c>
       <c r="K8">
-        <v>-0.0007454081632653</v>
+        <v>0.0102015796703297</v>
       </c>
       <c r="L8">
-        <v>-0.0112853933028517</v>
+        <v>0.0030505452220331</v>
       </c>
       <c r="M8">
-        <v>0.0064550580880711</v>
+        <v>0.0200578444874718</v>
       </c>
       <c r="N8">
-        <v>-0.621173469387756</v>
+        <v>8.09649180184894</v>
       </c>
       <c r="O8" t="s">
         <v>46</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>1858298</v>
@@ -1154,31 +1154,31 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.172661828017857</v>
+        <v>0.119406845061473</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.666666666666667</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.58</v>
+        <v>7.57</v>
       </c>
       <c r="K9">
-        <v>-0.0251405669389562</v>
+        <v>-0.0290781203785873</v>
       </c>
       <c r="L9">
-        <v>-0.0578268205376073</v>
+        <v>-0.06216167027628</v>
       </c>
       <c r="M9">
-        <v>0.0151237556177949</v>
+        <v>0.010734960257146</v>
       </c>
       <c r="N9">
-        <v>-0.331669748535043</v>
+        <v>-0.384123122570506</v>
       </c>
       <c r="O9" t="s">
         <v>46</v>
@@ -1222,37 +1222,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.646872018947574</v>
+        <v>0.0414865303622063</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.842105263157895</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.124</v>
+        <v>0.136</v>
       </c>
       <c r="K10">
-        <v>-0.0033487245360771</v>
+        <v>0.0096998626373626</v>
       </c>
       <c r="L10">
-        <v>-0.011797781396054</v>
+        <v>0.0039904534071824</v>
       </c>
       <c r="M10">
-        <v>0.007018066331792</v>
+        <v>0.0200377736626306</v>
       </c>
       <c r="N10">
-        <v>-2.700584303288</v>
+        <v>7.13225193923724</v>
       </c>
       <c r="O10" t="s">
         <v>46</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q10">
         <v>1858298</v>
@@ -1287,13 +1287,13 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0.590988886792535</v>
+        <v>0.0346964876697032</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>0.15</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.0104990890688259</v>
       </c>
       <c r="L11">
-        <v>-0.0125075379582469</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0050171703296703</v>
+        <v>0.0173928571428571</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.99939271255061</v>
       </c>
       <c r="O11" t="s">
         <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q11">
         <v>1858298</v>
@@ -1364,13 +1364,13 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.0207300091021393</v>
+        <v>9.94770754892269E-06</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.403508771929825</v>
+        <v>0.43859649122807</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1379,22 +1379,22 @@
         <v>0.013</v>
       </c>
       <c r="K12">
-        <v>0.0008868950170592</v>
+        <v>0.002509842601008</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.001487291428938</v>
       </c>
       <c r="M12">
-        <v>0.0017392857142857</v>
+        <v>0.0034874040528054</v>
       </c>
       <c r="N12">
-        <v>6.82226936199394</v>
+        <v>19.3064815462155</v>
       </c>
       <c r="O12" t="s">
         <v>46</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q12">
         <v>1858298</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>0.510986682230269</v>
+        <v>2.42651945552528E-05</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1447,25 +1447,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.316302895236719</v>
       </c>
       <c r="L13">
-        <v>-0.083200369636382</v>
+        <v>0.173928571428571</v>
       </c>
       <c r="M13">
-        <v>0.109370240307302</v>
+        <v>0.550505687939628</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>38.1087825586408</v>
       </c>
       <c r="O13" t="s">
         <v>46</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q13">
         <v>1858298</v>
@@ -1506,37 +1506,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.28662846703324</v>
+        <v>0.787922260180112</v>
       </c>
       <c r="G14">
-        <v>0.009009009009009</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="H14">
-        <v>0.792792792792793</v>
+        <v>0.768518518518518</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>2.2</v>
+        <v>2.175</v>
       </c>
       <c r="K14">
-        <v>0.0345553453169347</v>
+        <v>-0.051920261669024</v>
       </c>
       <c r="L14">
-        <v>-0.0723178967132888</v>
+        <v>-0.19659584091805</v>
       </c>
       <c r="M14">
-        <v>0.175707048539158</v>
+        <v>0.0534667424506687</v>
       </c>
       <c r="N14">
-        <v>1.57069751440612</v>
+        <v>-2.38713846754134</v>
       </c>
       <c r="O14" t="s">
         <v>46</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Q14">
         <v>1858298</v>
@@ -1574,40 +1574,40 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>0.040398397256041</v>
+        <v>2.39595780610058E-05</v>
       </c>
       <c r="G15">
-        <v>0.696969696969697</v>
+        <v>0.634920634920635</v>
       </c>
       <c r="H15">
-        <v>0.545454545454545</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J15">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="K15">
-        <v>-0.185058490858382</v>
+        <v>-0.334409057437408</v>
       </c>
       <c r="L15">
-        <v>-0.32992660263614</v>
+        <v>-0.453138482385449</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-0.203305616948106</v>
       </c>
       <c r="N15">
-        <v>-7.8083751417039</v>
+        <v>-15.2004117017004</v>
       </c>
       <c r="O15" t="s">
         <v>46</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q15">
         <v>1858298</v>
@@ -1648,37 +1648,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.195956363982831</v>
+        <v>0.756824229089456</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.863247863247863</v>
+        <v>0.854700854700855</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.27</v>
+        <v>10.26</v>
       </c>
       <c r="K16">
-        <v>-0.0166704701049748</v>
+        <v>0.008577299412915899</v>
       </c>
       <c r="L16">
-        <v>-0.0351201923076924</v>
+        <v>-0.010823800821327</v>
       </c>
       <c r="M16">
-        <v>0.0099978236058573</v>
+        <v>0.0270464269785329</v>
       </c>
       <c r="N16">
-        <v>-0.162322006864409</v>
+        <v>0.0835994094826113</v>
       </c>
       <c r="O16" t="s">
         <v>46</v>
       </c>
       <c r="P16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q16">
         <v>1858298</v>
@@ -1716,16 +1716,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17">
-        <v>0.77616813842571</v>
+        <v>0.256056291868622</v>
       </c>
       <c r="G17">
-        <v>0.0170940170940171</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H17">
-        <v>0.136752136752137</v>
+        <v>0.11965811965812</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>-0.0002100569802761</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0001710772833723</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>46</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q17">
         <v>1858298</v>
@@ -1787,16 +1787,16 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>0.0004833498839175</v>
+        <v>0.0001179573621436</v>
       </c>
       <c r="G18">
-        <v>0.162393162393162</v>
+        <v>0.172413793103448</v>
       </c>
       <c r="H18">
-        <v>0.205128205128205</v>
+        <v>0.224137931034483</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1805,22 +1805,22 @@
         <v>8</v>
       </c>
       <c r="K18">
-        <v>0.993877551020408</v>
+        <v>1.00343406593407</v>
       </c>
       <c r="L18">
-        <v>0.332347588717015</v>
+        <v>0.285909980430528</v>
       </c>
       <c r="M18">
-        <v>1.49794941900205</v>
+        <v>1.77154591598638</v>
       </c>
       <c r="N18">
-        <v>12.4234693877551</v>
+        <v>12.5429258241758</v>
       </c>
       <c r="O18" t="s">
         <v>46</v>
       </c>
       <c r="P18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q18">
         <v>1858298</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19">
-        <v>0.973214285714286</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="H19">
-        <v>0.0625</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -1911,16 +1911,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>0.988356912217105</v>
+        <v>0.9801588803572761</v>
       </c>
       <c r="G20">
-        <v>0.615384615384615</v>
+        <v>0.700854700854701</v>
       </c>
       <c r="H20">
-        <v>0.0769230769230769</v>
+        <v>0.0683760683760684</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>46</v>
       </c>
       <c r="P20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q20">
         <v>1858298</v>
@@ -1982,40 +1982,40 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>9.220574922489009E-12</v>
+        <v>3.71242212076702E-12</v>
       </c>
       <c r="G21">
-        <v>0.0598290598290598</v>
+        <v>0.0341880341880342</v>
       </c>
       <c r="H21">
-        <v>0.777777777777778</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21">
-        <v>0.0852</v>
+        <v>0.106</v>
       </c>
       <c r="K21">
-        <v>0.0100728417266187</v>
+        <v>0.0118360337745322</v>
       </c>
       <c r="L21">
-        <v>0.0080274725274725</v>
+        <v>0.0093961412151067</v>
       </c>
       <c r="M21">
-        <v>0.0119276672671769</v>
+        <v>0.0138242417493737</v>
       </c>
       <c r="N21">
-        <v>11.8225841861722</v>
+        <v>11.1660695986153</v>
       </c>
       <c r="O21" t="s">
         <v>46</v>
       </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21">
         <v>1858298</v>
@@ -2056,37 +2056,37 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.177202364500265</v>
+        <v>0.0037294637180249</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.560344827586207</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.605</v>
+        <v>7.615</v>
       </c>
       <c r="K22">
-        <v>-0.0074145723660488</v>
+        <v>-0.0214023728637293</v>
       </c>
       <c r="L22">
-        <v>-0.0207057823129253</v>
+        <v>-0.0347857142857142</v>
       </c>
       <c r="M22">
-        <v>0.0062563143196864</v>
+        <v>-0.0079305913765232</v>
       </c>
       <c r="N22">
-        <v>-0.0974960205923579</v>
+        <v>-0.281055454546675</v>
       </c>
       <c r="O22" t="s">
         <v>46</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q22">
         <v>1858298</v>
@@ -2124,37 +2124,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>4.75119183736523E-11</v>
+        <v>1.97324191373279E-11</v>
       </c>
       <c r="G23">
         <v>0.0170940170940171</v>
       </c>
       <c r="H23">
-        <v>0.666666666666667</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.0905</v>
+        <v>0.113</v>
       </c>
       <c r="K23">
-        <v>0.0100343406593407</v>
+        <v>0.0118887884267631</v>
       </c>
       <c r="L23">
-        <v>0.0079690473104677</v>
+        <v>0.009795977011494201</v>
       </c>
       <c r="M23">
-        <v>0.0125752313742269</v>
+        <v>0.0140718810125883</v>
       </c>
       <c r="N23">
-        <v>11.0876692368405</v>
+        <v>10.5210517051001</v>
       </c>
       <c r="O23" t="s">
         <v>46</v>
       </c>
       <c r="P23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q23">
         <v>1858298</v>
@@ -2195,37 +2195,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>4.57802888536236E-08</v>
+        <v>2.13491578122733E-07</v>
       </c>
       <c r="G24">
         <v>0.0170940170940171</v>
       </c>
       <c r="H24">
-        <v>0.324786324786325</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="K24">
-        <v>0.007996715927750401</v>
+        <v>0.008738038277511901</v>
       </c>
       <c r="L24">
-        <v>0.0057161237324641</v>
+        <v>0.0059746455834242</v>
       </c>
       <c r="M24">
-        <v>0.0100343406593407</v>
+        <v>0.0112727073575706</v>
       </c>
       <c r="N24">
-        <v>6.15131994442339</v>
+        <v>6.24145591250854</v>
       </c>
       <c r="O24" t="s">
         <v>46</v>
       </c>
       <c r="P24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q24">
         <v>1858298</v>
@@ -2266,37 +2266,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.0809659722155347</v>
+        <v>0.0003628553567789</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.213675213675214</v>
+        <v>0.247863247863248</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="K25">
-        <v>0.0001532093239305</v>
+        <v>0.0005144973540686</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.0002429862072605</v>
       </c>
       <c r="M25">
-        <v>0.0004001059093184</v>
+        <v>0.0008108473415772</v>
       </c>
       <c r="N25">
-        <v>1.27674436608814</v>
+        <v>3.95767195437438</v>
       </c>
       <c r="O25" t="s">
         <v>46</v>
       </c>
       <c r="P25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q25">
         <v>1858298</v>
@@ -2337,7 +2337,7 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.269311321652616</v>
+        <v>0.0005157201341803</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2349,25 +2349,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="K26">
-        <v>0.007741827977167</v>
+        <v>0.06415398126463701</v>
       </c>
       <c r="L26">
-        <v>-0.0122815787143382</v>
+        <v>0.0270459424532687</v>
       </c>
       <c r="M26">
-        <v>0.0337815123440866</v>
+        <v>0.105796428170435</v>
       </c>
       <c r="N26">
-        <v>1.38246928163698</v>
+        <v>10.0240595725995</v>
       </c>
       <c r="O26" t="s">
         <v>46</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q26">
         <v>1858298</v>
@@ -2408,37 +2408,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.0013926518351419</v>
+        <v>0.0145686311529309</v>
       </c>
       <c r="G27">
-        <v>0.006060606060606</v>
+        <v>0.0121212121212121</v>
       </c>
       <c r="H27">
-        <v>0.715151515151515</v>
+        <v>0.703030303030303</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K27">
-        <v>0.08362934308338719</v>
+        <v>0.0508262910240187</v>
       </c>
       <c r="L27">
-        <v>0.0289245191103778</v>
+        <v>0.0106410818621565</v>
       </c>
       <c r="M27">
-        <v>0.173321914757042</v>
+        <v>0.116774339347601</v>
       </c>
       <c r="N27">
-        <v>4.07948015040913</v>
+        <v>2.60647646277019</v>
       </c>
       <c r="O27" t="s">
         <v>46</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q27">
         <v>1858298</v>
@@ -2476,40 +2476,40 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F28">
-        <v>0.992473460199925</v>
+        <v>0.821830340324655</v>
       </c>
       <c r="G28">
-        <v>0.466666666666667</v>
+        <v>0.464912280701754</v>
       </c>
       <c r="H28">
-        <v>0.441666666666667</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="I28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J28">
-        <v>2.64</v>
+        <v>2.2</v>
       </c>
       <c r="K28">
-        <v>-0.139029916512059</v>
+        <v>-0.125353925353925</v>
       </c>
       <c r="L28">
-        <v>-0.217410714285714</v>
+        <v>-0.187145575799433</v>
       </c>
       <c r="M28">
-        <v>-0.0514920112781955</v>
+        <v>-0.0471500287415189</v>
       </c>
       <c r="N28">
-        <v>-5.26628471636588</v>
+        <v>-5.6979056979057</v>
       </c>
       <c r="O28" t="s">
         <v>46</v>
       </c>
       <c r="P28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q28">
         <v>1858298</v>
@@ -2550,31 +2550,31 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>2.73926335947472E-07</v>
+        <v>0.0001609457307619</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.798850574712644</v>
+        <v>0.771428571428571</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>10.435</v>
+        <v>10.37</v>
       </c>
       <c r="K29">
-        <v>-0.0531756141947225</v>
+        <v>-0.0322900374022441</v>
       </c>
       <c r="L29">
-        <v>-0.06908665010120681</v>
+        <v>-0.0466545835642693</v>
       </c>
       <c r="M29">
-        <v>-0.037713162262532</v>
+        <v>-0.0199516058071807</v>
       </c>
       <c r="N29">
-        <v>-0.509589019594849</v>
+        <v>-0.311379338498015</v>
       </c>
       <c r="O29" t="s">
         <v>46</v>
@@ -2621,10 +2621,10 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.016831972489151</v>
+        <v>0.0003650237916631</v>
       </c>
       <c r="G30">
-        <v>0.0342857142857143</v>
+        <v>0.04</v>
       </c>
       <c r="H30">
         <v>0.0914285714285714</v>
@@ -2636,22 +2636,22 @@
         <v>0.01</v>
       </c>
       <c r="K30">
-        <v>8.96539027982327E-05</v>
+        <v>0.000167239010989</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0001945388219894</v>
+        <v>0.0002595948827292</v>
       </c>
       <c r="N30">
-        <v>0.896539027982327</v>
+        <v>1.67239010989011</v>
       </c>
       <c r="O30" t="s">
         <v>46</v>
       </c>
       <c r="P30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q30">
         <v>1858298</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>0.0184548536521037</v>
+        <v>0.0120922759354618</v>
       </c>
       <c r="G31">
-        <v>0.108571428571429</v>
+        <v>0.114942528735632</v>
       </c>
       <c r="H31">
-        <v>0.245714285714286</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2707,22 +2707,22 @@
         <v>8</v>
       </c>
       <c r="K31">
-        <v>0.249658236500342</v>
+        <v>0.250858516483516</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.570363985713609</v>
+        <v>0.643009626589254</v>
       </c>
       <c r="N31">
-        <v>3.12072795625427</v>
+        <v>3.13573145604396</v>
       </c>
       <c r="O31" t="s">
         <v>46</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q31">
         <v>1858298</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32">
-        <v>0.791069263251998</v>
+        <v>0.785237690196444</v>
       </c>
       <c r="G32">
-        <v>0.958823529411765</v>
+        <v>0.952941176470588</v>
       </c>
       <c r="H32">
         <v>0.0764705882352941</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32">
         <v>0.005</v>
@@ -2793,7 +2793,7 @@
         <v>46</v>
       </c>
       <c r="P32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q32">
         <v>1858298</v>
@@ -2831,16 +2831,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0.72013569566207</v>
+        <v>0.857983174528221</v>
       </c>
       <c r="G33">
-        <v>0.636363636363636</v>
+        <v>0.645714285714286</v>
       </c>
       <c r="H33">
-        <v>0.0545454545454545</v>
+        <v>0.0514285714285714</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2864,7 +2864,7 @@
         <v>46</v>
       </c>
       <c r="P33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33">
         <v>1858298</v>
@@ -2905,37 +2905,37 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>4.21672316780681E-10</v>
+        <v>3.57682457174117E-13</v>
       </c>
       <c r="G34">
-        <v>0.0787878787878788</v>
+        <v>0.0742857142857143</v>
       </c>
       <c r="H34">
-        <v>0.696969696969697</v>
+        <v>0.6857142857142861</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34">
-        <v>0.0784</v>
+        <v>0.0852</v>
       </c>
       <c r="K34">
-        <v>0.0052365666145185</v>
+        <v>0.0062245423942773</v>
       </c>
       <c r="L34">
-        <v>0.0039875361343533</v>
+        <v>0.0047870354090351</v>
       </c>
       <c r="M34">
-        <v>0.0067858595342739</v>
+        <v>0.007709125251941</v>
       </c>
       <c r="N34">
-        <v>6.67929415117156</v>
+        <v>7.30580093225035</v>
       </c>
       <c r="O34" t="s">
         <v>46</v>
       </c>
       <c r="P34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q34">
         <v>1858298</v>
@@ -2976,37 +2976,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.96629634442148</v>
+        <v>0.748703223569139</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.522988505747126</v>
+        <v>0.488505747126437</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>7.575</v>
+        <v>7.58</v>
       </c>
       <c r="K35">
-        <v>0.0114051522248244</v>
+        <v>0.0034479232221523</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-0.0050022323387215</v>
       </c>
       <c r="M35">
-        <v>0.0216054353478146</v>
+        <v>0.0125124640687905</v>
       </c>
       <c r="N35">
-        <v>0.150563065674249</v>
+        <v>0.0454871137487114</v>
       </c>
       <c r="O35" t="s">
         <v>46</v>
       </c>
       <c r="P35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q35">
         <v>1858298</v>
@@ -3044,37 +3044,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>8.488819777241229E-08</v>
+        <v>2.1039556020136E-11</v>
       </c>
       <c r="G36">
         <v>0.0114285714285714</v>
       </c>
       <c r="H36">
-        <v>0.6914285714285709</v>
+        <v>0.6857142857142861</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0.08500000000000001</v>
+        <v>0.1005</v>
       </c>
       <c r="K36">
-        <v>0.0041543448589626</v>
+        <v>0.005957553366174</v>
       </c>
       <c r="L36">
-        <v>0.002866959434485</v>
+        <v>0.0046376637725597</v>
       </c>
       <c r="M36">
-        <v>0.0054271871244426</v>
+        <v>0.007545246659815</v>
       </c>
       <c r="N36">
-        <v>4.88746453995611</v>
+        <v>5.92791379718812</v>
       </c>
       <c r="O36" t="s">
         <v>46</v>
       </c>
       <c r="P36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q36">
         <v>1858298</v>
@@ -3115,10 +3115,10 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.0010578682157611</v>
+        <v>5.3032400971322E-05</v>
       </c>
       <c r="G37">
-        <v>0.0228571428571429</v>
+        <v>0.0114285714285714</v>
       </c>
       <c r="H37">
         <v>0.36</v>
@@ -3130,22 +3130,22 @@
         <v>0.13</v>
       </c>
       <c r="K37">
-        <v>0.0029987684729064</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="L37">
-        <v>0.0013118123601378</v>
+        <v>0.0024965823650034</v>
       </c>
       <c r="M37">
-        <v>0.0044570527714558</v>
+        <v>0.0055389905422795</v>
       </c>
       <c r="N37">
-        <v>2.30674497915877</v>
+        <v>3.08748943364328</v>
       </c>
       <c r="O37" t="s">
         <v>46</v>
       </c>
       <c r="P37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q37">
         <v>1858298</v>
@@ -3183,16 +3183,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F38">
-        <v>0.7259953690291731</v>
+        <v>0.0899536833793447</v>
       </c>
       <c r="G38">
         <v>0.0114285714285714</v>
       </c>
       <c r="H38">
-        <v>0.205714285714286</v>
+        <v>0.217142857142857</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -3201,22 +3201,22 @@
         <v>0.013</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.000111254949741</v>
       </c>
       <c r="L38">
-        <v>-0.0001750206434785</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>0.0002882794001578</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>0.855807305700697</v>
       </c>
       <c r="O38" t="s">
         <v>46</v>
       </c>
       <c r="P38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q38">
         <v>1858298</v>
@@ -3254,40 +3254,40 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F39">
-        <v>0.978486981539732</v>
+        <v>0.487646241353909</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.777142857142857</v>
+        <v>0.788571428571429</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K39">
-        <v>-0.0151242236024845</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-0.029458941775513</v>
+        <v>-0.0142344737871982</v>
       </c>
       <c r="M39">
-        <v>-0.0029289963507512</v>
+        <v>0.0177305776064601</v>
       </c>
       <c r="N39">
-        <v>-2.32680363115146</v>
+        <v>0</v>
       </c>
       <c r="O39" t="s">
         <v>46</v>
       </c>
       <c r="P39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q39">
         <v>1858298</v>
@@ -3316,49 +3316,49 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F40">
-        <v>0.40324797025367</v>
+        <v>0.320973022277716</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.037914691943128</v>
       </c>
       <c r="H40">
+        <v>0.109004739336493</v>
+      </c>
+      <c r="I40">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
-        <v>0.59</v>
+        <v>0.011</v>
       </c>
       <c r="K40">
-        <v>-0.0132366419294991</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>-0.0381749965385811</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0.0324618304036267</v>
+        <v>6.42619303721583E-05</v>
       </c>
       <c r="N40">
-        <v>-2.24349863211849</v>
+        <v>0</v>
       </c>
       <c r="O40" t="s">
         <v>46</v>
       </c>
       <c r="P40" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Q40">
         <v>1858298</v>
@@ -3377,6 +3377,9 @@
       </c>
       <c r="V40" t="s">
         <v>63</v>
+      </c>
+      <c r="W40" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3384,43 +3387,43 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.04320536648685</v>
+        <v>0.0618932553808119</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.271428571428571</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>127.27</v>
+        <v>8</v>
       </c>
       <c r="K41">
-        <v>-4.76151474369275</v>
+        <v>0.0909260642270351</v>
       </c>
       <c r="L41">
-        <v>-10.6302449243183</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>-0.945298783620494</v>
+        <v>0.3014868956297</v>
       </c>
       <c r="N41">
-        <v>-3.741270325837</v>
+        <v>1.13657580283794</v>
       </c>
       <c r="O41" t="s">
         <v>46</v>
@@ -3446,55 +3449,58 @@
       <c r="V41" t="s">
         <v>63</v>
       </c>
+      <c r="W41" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F42">
-        <v>0.40324797025367</v>
+        <v>0.63601201375723</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.9563106796116509</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0.07281553398058251</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J42">
-        <v>7.44</v>
+        <v>0.005</v>
       </c>
       <c r="K42">
-        <v>-0.08965783082918211</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>-0.398310863184819</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>0.100850719553334</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>-1.20507837135997</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
         <v>46</v>
       </c>
       <c r="P42" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="Q42">
         <v>1858298</v>
@@ -3513,6 +3519,9 @@
       </c>
       <c r="V42" t="s">
         <v>63</v>
+      </c>
+      <c r="W42" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3520,49 +3529,49 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.053702318165127</v>
+        <v>2.13478522714918E-07</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.0696517412935323</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0.646766169154229</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43">
-        <v>0.6155</v>
+        <v>0.094</v>
       </c>
       <c r="K43">
-        <v>-0.0110681818181818</v>
+        <v>0.0036965745426235</v>
       </c>
       <c r="L43">
-        <v>-0.0230382118973147</v>
+        <v>0.0024680247101817</v>
       </c>
       <c r="M43">
-        <v>-0.0011167629161714</v>
+        <v>0.0048223555009062</v>
       </c>
       <c r="N43">
-        <v>-1.79824237500923</v>
+        <v>3.93252610917403</v>
       </c>
       <c r="O43" t="s">
         <v>46</v>
       </c>
       <c r="P43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q43">
         <v>1858298</v>
@@ -3581,6 +3590,9 @@
       </c>
       <c r="V43" t="s">
         <v>63</v>
+      </c>
+      <c r="W43" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3588,49 +3600,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.185546684761349</v>
+        <v>4.44308780157131E-06</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.014218009478673</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0.644549763033175</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>127.97</v>
+        <v>0.104</v>
       </c>
       <c r="K44">
-        <v>-0.56892523364486</v>
+        <v>0.0032604677443976</v>
       </c>
       <c r="L44">
-        <v>-2.75703799189977</v>
+        <v>0.002053924458746</v>
       </c>
       <c r="M44">
-        <v>1.01704001666134</v>
+        <v>0.0042524578559965</v>
       </c>
       <c r="N44">
-        <v>-0.444577036527983</v>
+        <v>3.13506513884391</v>
       </c>
       <c r="O44" t="s">
         <v>46</v>
       </c>
       <c r="P44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q44">
         <v>1858298</v>
@@ -3649,6 +3661,9 @@
       </c>
       <c r="V44" t="s">
         <v>63</v>
+      </c>
+      <c r="W44" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3656,10 +3671,10 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -3668,37 +3683,37 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.185546684761349</v>
+        <v>0.981835458991246</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0.7677725118483411</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>7.5155</v>
+        <v>0.8</v>
       </c>
       <c r="K45">
-        <v>-0.0302538398244653</v>
+        <v>-0.0163004132231405</v>
       </c>
       <c r="L45">
-        <v>-0.118458173785461</v>
+        <v>-0.0300734368089309</v>
       </c>
       <c r="M45">
-        <v>0.0352877558234479</v>
+        <v>-0.0037008811615561</v>
       </c>
       <c r="N45">
-        <v>-0.402552588975654</v>
+        <v>-2.03755165289256</v>
       </c>
       <c r="O45" t="s">
         <v>46</v>
       </c>
       <c r="P45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q45">
         <v>1858298</v>
@@ -3717,6 +3732,9 @@
       </c>
       <c r="V45" t="s">
         <v>63</v>
+      </c>
+      <c r="W45" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3727,7 +3745,7 @@
         <v>37</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -3736,37 +3754,37 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.273221677481333</v>
+        <v>0.0647756764522039</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.6155</v>
+        <v>0.59</v>
       </c>
       <c r="K46">
-        <v>-0.0028849511536063</v>
+        <v>-0.0132366419294991</v>
       </c>
       <c r="L46">
-        <v>-0.0087846923845162</v>
+        <v>-0.036897179941981</v>
       </c>
       <c r="M46">
-        <v>0.0056952532669832</v>
+        <v>-0.0048661289930242</v>
       </c>
       <c r="N46">
-        <v>-0.468716678083885</v>
+        <v>-2.24349863211849</v>
       </c>
       <c r="O46" t="s">
         <v>46</v>
       </c>
       <c r="P46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q46">
         <v>1858298</v>
@@ -3795,7 +3813,7 @@
         <v>38</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -3804,7 +3822,7 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.008765351686527</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3816,25 +3834,25 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>129</v>
+        <v>127.27</v>
       </c>
       <c r="K47">
-        <v>-1.58712223756906</v>
+        <v>-3.10817170013166</v>
       </c>
       <c r="L47">
-        <v>-2.46658009749709</v>
+        <v>-10.6302449243183</v>
       </c>
       <c r="M47">
-        <v>-0.649856164262165</v>
+        <v>1.70052115058793</v>
       </c>
       <c r="N47">
-        <v>-1.23032731594501</v>
+        <v>-2.44218723983002</v>
       </c>
       <c r="O47" t="s">
         <v>46</v>
       </c>
       <c r="P47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q47">
         <v>1858298</v>
@@ -3863,7 +3881,7 @@
         <v>39</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -3872,54 +3890,462 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.310849452184828</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.928571428571429</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>7.5155</v>
+        <v>7.44</v>
       </c>
       <c r="K48">
-        <v>-0.0172831230283912</v>
+        <v>-0.170024888153442</v>
       </c>
       <c r="L48">
-        <v>-0.0565140103782717</v>
+        <v>-0.398310863184819</v>
       </c>
       <c r="M48">
-        <v>0.0217053109539651</v>
+        <v>-0.0130316321552576</v>
       </c>
       <c r="N48">
-        <v>-0.229966376533713</v>
+        <v>-2.28528075475056</v>
       </c>
       <c r="O48" t="s">
         <v>46</v>
       </c>
       <c r="P48" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q48">
+        <v>1858298</v>
+      </c>
+      <c r="R48">
+        <v>5554509</v>
+      </c>
+      <c r="S48" t="s">
+        <v>60</v>
+      </c>
+      <c r="T48" t="s">
+        <v>61</v>
+      </c>
+      <c r="U48" t="s">
+        <v>62</v>
+      </c>
+      <c r="V48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49">
+        <v>0.0439807371540401</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.9</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.6085</v>
+      </c>
+      <c r="K49">
+        <v>-0.0115637720488467</v>
+      </c>
+      <c r="L49">
+        <v>-0.0232206453753533</v>
+      </c>
+      <c r="M49">
+        <v>-0.0027946695165638</v>
+      </c>
+      <c r="N49">
+        <v>-1.90037338518433</v>
+      </c>
+      <c r="O49" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" t="s">
         <v>49</v>
       </c>
-      <c r="Q48">
-        <v>1858298</v>
-      </c>
-      <c r="R48">
-        <v>5554509</v>
-      </c>
-      <c r="S48" t="s">
-        <v>60</v>
-      </c>
-      <c r="T48" t="s">
-        <v>61</v>
-      </c>
-      <c r="U48" t="s">
-        <v>62</v>
-      </c>
-      <c r="V48" t="s">
+      <c r="Q49">
+        <v>1858298</v>
+      </c>
+      <c r="R49">
+        <v>5554509</v>
+      </c>
+      <c r="S49" t="s">
+        <v>60</v>
+      </c>
+      <c r="T49" t="s">
+        <v>61</v>
+      </c>
+      <c r="U49" t="s">
+        <v>62</v>
+      </c>
+      <c r="V49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <v>0.185546684761349</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>128.835</v>
+      </c>
+      <c r="K50">
+        <v>-0.56892523364486</v>
+      </c>
+      <c r="L50">
+        <v>-2.35900705543474</v>
+      </c>
+      <c r="M50">
+        <v>0.412810400437249</v>
+      </c>
+      <c r="N50">
+        <v>-0.441592140058881</v>
+      </c>
+      <c r="O50" t="s">
+        <v>46</v>
+      </c>
+      <c r="P50" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q50">
+        <v>1858298</v>
+      </c>
+      <c r="R50">
+        <v>5554509</v>
+      </c>
+      <c r="S50" t="s">
+        <v>60</v>
+      </c>
+      <c r="T50" t="s">
+        <v>61</v>
+      </c>
+      <c r="U50" t="s">
+        <v>62</v>
+      </c>
+      <c r="V50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <v>0.053702318165127</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>7.505</v>
+      </c>
+      <c r="K51">
+        <v>-0.0630319881889764</v>
+      </c>
+      <c r="L51">
+        <v>-0.120549629706843</v>
+      </c>
+      <c r="M51">
+        <v>-0.016767229673985</v>
+      </c>
+      <c r="N51">
+        <v>-0.839866598120937</v>
+      </c>
+      <c r="O51" t="s">
+        <v>46</v>
+      </c>
+      <c r="P51" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q51">
+        <v>1858298</v>
+      </c>
+      <c r="R51">
+        <v>5554509</v>
+      </c>
+      <c r="S51" t="s">
+        <v>60</v>
+      </c>
+      <c r="T51" t="s">
+        <v>61</v>
+      </c>
+      <c r="U51" t="s">
+        <v>62</v>
+      </c>
+      <c r="V51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>0.213673143405019</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.61</v>
+      </c>
+      <c r="K52">
+        <v>-0.0029173322683706</v>
+      </c>
+      <c r="L52">
+        <v>-0.0072639460509143</v>
+      </c>
+      <c r="M52">
+        <v>0.0045031270970376</v>
+      </c>
+      <c r="N52">
+        <v>-0.478251191536166</v>
+      </c>
+      <c r="O52" t="s">
+        <v>46</v>
+      </c>
+      <c r="P52" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q52">
+        <v>1858298</v>
+      </c>
+      <c r="R52">
+        <v>5554509</v>
+      </c>
+      <c r="S52" t="s">
+        <v>60</v>
+      </c>
+      <c r="T52" t="s">
+        <v>61</v>
+      </c>
+      <c r="U52" t="s">
+        <v>62</v>
+      </c>
+      <c r="V52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>0.068822922759132</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>129</v>
+      </c>
+      <c r="K53">
+        <v>-0.991628959276018</v>
+      </c>
+      <c r="L53">
+        <v>-1.91759535851736</v>
+      </c>
+      <c r="M53">
+        <v>0.148642130903616</v>
+      </c>
+      <c r="N53">
+        <v>-0.768704619593813</v>
+      </c>
+      <c r="O53" t="s">
+        <v>46</v>
+      </c>
+      <c r="P53" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q53">
+        <v>1858298</v>
+      </c>
+      <c r="R53">
+        <v>5554509</v>
+      </c>
+      <c r="S53" t="s">
+        <v>60</v>
+      </c>
+      <c r="T53" t="s">
+        <v>61</v>
+      </c>
+      <c r="U53" t="s">
+        <v>62</v>
+      </c>
+      <c r="V53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>0.149052589019162</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>7.461</v>
+      </c>
+      <c r="K54">
+        <v>-0.0205196629213488</v>
+      </c>
+      <c r="L54">
+        <v>-0.0570943409564934</v>
+      </c>
+      <c r="M54">
+        <v>0.011987671777846</v>
+      </c>
+      <c r="N54">
+        <v>-0.275025638940474</v>
+      </c>
+      <c r="O54" t="s">
+        <v>46</v>
+      </c>
+      <c r="P54" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q54">
+        <v>1858298</v>
+      </c>
+      <c r="R54">
+        <v>5554509</v>
+      </c>
+      <c r="S54" t="s">
+        <v>60</v>
+      </c>
+      <c r="T54" t="s">
+        <v>61</v>
+      </c>
+      <c r="U54" t="s">
+        <v>62</v>
+      </c>
+      <c r="V54" t="s">
         <v>63</v>
       </c>
     </row>
